--- a/Документация/Профиль нагрузки, Петров.xlsx
+++ b/Документация/Профиль нагрузки, Петров.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Никита\Desktop\IBS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Никита\Desktop\IBS\VuGen\AppLine_LoadRunner\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A436E2E-DC43-4E19-B0CA-891E951CE527}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5BB715-31DD-4593-891B-B713EC1AF763}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -299,7 +299,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,6 +536,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -748,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1126,6 +1133,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1174,7 +1209,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1368,6 +1403,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1711,7 +1752,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C1B8241-71E6-3F4A-ACE2-C3E8BA417ED7}" name="Сводная таблица2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C1B8241-71E6-3F4A-ACE2-C3E8BA417ED7}" name="Сводная таблица2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -3435,7 +3476,7 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4239,7 +4280,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="81" t="s">
         <v>16</v>
       </c>
@@ -4270,7 +4311,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="81" t="s">
         <v>16</v>
       </c>
@@ -4301,7 +4342,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="58" t="s">
         <v>16</v>
       </c>
@@ -4332,7 +4373,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="59" t="s">
         <v>16</v>
       </c>
@@ -4363,7 +4404,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="80" t="s">
         <v>78</v>
       </c>
@@ -4394,7 +4435,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="81" t="s">
         <v>78</v>
       </c>
@@ -4425,7 +4466,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="82" t="s">
         <v>78</v>
       </c>
@@ -4456,17 +4497,17 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="85"/>
       <c r="B24" s="86"/>
       <c r="C24" s="85"/>
     </row>
-    <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="I25" s="46" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="132" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48" t="s">
         <v>56</v>
       </c>
@@ -4485,7 +4526,7 @@
       </c>
       <c r="I26" s="50"/>
     </row>
-    <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="46" t="s">
         <v>4</v>
       </c>
@@ -4500,6 +4541,10 @@
         <f>1-B27/C27</f>
         <v>-7.2187136153547549E-3</v>
       </c>
+      <c r="F27">
+        <f>G27*2</f>
+        <v>424.93253373313343</v>
+      </c>
       <c r="G27" s="51">
         <f>C27/3</f>
         <v>212.46626686656671</v>
@@ -4511,8 +4556,15 @@
         <f>1-G27/H27</f>
         <v>-2.1993720121071814E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K27" s="98">
+        <v>238</v>
+      </c>
+      <c r="L27">
+        <f>1-F27/K27</f>
+        <v>-0.78543081400476233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="46" t="s">
         <v>18</v>
       </c>
@@ -4527,19 +4579,30 @@
         <f t="shared" ref="D28:D33" si="11">1-B28/C28</f>
         <v>-1.0753720595295224E-2</v>
       </c>
+      <c r="F28">
+        <f t="shared" ref="F28:F33" si="12">G28*2</f>
+        <v>239.42528735632186</v>
+      </c>
       <c r="G28" s="51">
-        <f t="shared" ref="G28:G33" si="12">C28/3</f>
+        <f t="shared" ref="G28:G33" si="13">C28/3</f>
         <v>119.71264367816093</v>
       </c>
       <c r="H28" s="52">
         <v>120</v>
       </c>
       <c r="I28" s="50">
-        <f t="shared" ref="I28:I33" si="13">1-G28/H28</f>
+        <f t="shared" ref="I28:I33" si="14">1-G28/H28</f>
         <v>2.3946360153256352E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K28" s="99">
+        <v>52</v>
+      </c>
+      <c r="L28">
+        <f t="shared" ref="L28:L33" si="15">1-F28/K28</f>
+        <v>-3.6043324491600357</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="46" t="s">
         <v>19</v>
       </c>
@@ -4554,19 +4617,30 @@
         <f t="shared" si="11"/>
         <v>-1.0753720595295224E-2</v>
       </c>
+      <c r="F29">
+        <f t="shared" si="12"/>
+        <v>239.42528735632186</v>
+      </c>
       <c r="G29" s="51">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>119.71264367816093</v>
       </c>
       <c r="H29" s="52">
         <v>119</v>
       </c>
       <c r="I29" s="50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-5.9886023374868813E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K29" s="99">
+        <v>240</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="15"/>
+        <v>2.3946360153256352E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="46" t="s">
         <v>7</v>
       </c>
@@ -4581,19 +4655,30 @@
         <f t="shared" si="11"/>
         <v>-2.1276595744680771E-2</v>
       </c>
+      <c r="F30">
+        <f t="shared" si="12"/>
+        <v>156.66666666666666</v>
+      </c>
       <c r="G30" s="51">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>78.333333333333329</v>
       </c>
       <c r="H30" s="52">
         <v>78</v>
       </c>
       <c r="I30" s="50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-4.2735042735042583E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K30" s="99">
+        <v>156</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="15"/>
+        <v>-4.2735042735042583E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="46" t="s">
         <v>8</v>
       </c>
@@ -4608,19 +4693,30 @@
         <f t="shared" si="11"/>
         <v>-1.7885323513939788E-3</v>
       </c>
+      <c r="F31">
+        <f t="shared" si="12"/>
+        <v>275.50724637681157</v>
+      </c>
       <c r="G31" s="51">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>137.75362318840578</v>
       </c>
       <c r="H31" s="52">
         <v>137</v>
       </c>
       <c r="I31" s="50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-5.5008991854437195E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K31" s="99">
+        <v>276</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="15"/>
+        <v>1.7853392144508984E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="46" t="s">
         <v>20</v>
       </c>
@@ -4635,19 +4731,30 @@
         <f t="shared" si="11"/>
         <v>3.3333333333332993E-3</v>
       </c>
+      <c r="F32">
+        <f t="shared" si="12"/>
+        <v>52.173913043478258</v>
+      </c>
       <c r="G32" s="51">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>26.086956521739129</v>
       </c>
       <c r="H32" s="52">
         <v>26</v>
       </c>
       <c r="I32" s="50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-3.3444816053511683E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K32" s="99">
+        <v>427</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="15"/>
+        <v>0.87781285001527343</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="46" t="s">
         <v>10</v>
       </c>
@@ -4655,26 +4762,37 @@
         <v>642</v>
       </c>
       <c r="C33" s="51">
-        <f t="shared" ref="C33" si="14">GETPIVOTDATA("Итого",$I$1,"transaction rq",A33)</f>
+        <f t="shared" ref="C33" si="16">GETPIVOTDATA("Итого",$I$1,"transaction rq",A33)</f>
         <v>637.39880059970017</v>
       </c>
       <c r="D33" s="50">
         <f t="shared" si="11"/>
         <v>-7.2187136153547549E-3</v>
       </c>
+      <c r="F33">
+        <f t="shared" si="12"/>
+        <v>424.93253373313343</v>
+      </c>
       <c r="G33" s="51">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>212.46626686656671</v>
       </c>
       <c r="H33" s="52">
         <v>212</v>
       </c>
       <c r="I33" s="50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-2.1993720121071814E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K33" s="99">
+        <v>422</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="15"/>
+        <v>-6.9491320690364677E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A34" s="47" t="s">
         <v>11</v>
       </c>
